--- a/template.xlsx
+++ b/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D1EB48-834D-4393-81EE-D3BF4A5760C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2497421-5C30-4FB4-B5B6-41753B467CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'RAPORT WYDANIA F-NR 15'!$A$1:$L$113</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'RAPORT WYDANIA F-NR 15'!$A$1:$L$115</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -2436,13 +2436,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>401171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>1512795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2480,13 +2480,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>51547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2612,13 +2612,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>980322</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>372104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2656,13 +2656,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>627531</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594843</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>349691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3074,10 +3074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S116"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A76" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,395 +3800,367 @@
       </c>
       <c r="M50" s="21"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="203" t="s">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="204"/>
-      <c r="C54" s="205" t="s">
+      <c r="B56" s="204"/>
+      <c r="C56" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="206"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="207"/>
-      <c r="H54" s="203" t="s">
+      <c r="D56" s="206"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="207"/>
+      <c r="H56" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="I54" s="208"/>
-      <c r="J54" s="208"/>
-      <c r="K54" s="208"/>
-      <c r="L54" s="204"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="I56" s="208"/>
+      <c r="J56" s="208"/>
+      <c r="K56" s="208"/>
+      <c r="L56" s="204"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="209" t="s">
+    <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="210"/>
-      <c r="C57" s="210"/>
-      <c r="D57" s="210"/>
-      <c r="E57" s="210"/>
-      <c r="F57" s="210"/>
-      <c r="G57" s="210"/>
-      <c r="H57" s="210"/>
-      <c r="I57" s="210"/>
-      <c r="J57" s="210"/>
-      <c r="K57" s="210"/>
-      <c r="L57" s="211"/>
-    </row>
-    <row r="58" spans="1:13" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="174" t="s">
+      <c r="B59" s="210"/>
+      <c r="C59" s="210"/>
+      <c r="D59" s="210"/>
+      <c r="E59" s="210"/>
+      <c r="F59" s="210"/>
+      <c r="G59" s="210"/>
+      <c r="H59" s="210"/>
+      <c r="I59" s="210"/>
+      <c r="J59" s="210"/>
+      <c r="K59" s="210"/>
+      <c r="L59" s="211"/>
+    </row>
+    <row r="60" spans="1:13" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="176"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="185"/>
-      <c r="G58" s="174" t="s">
+      <c r="B60" s="176"/>
+      <c r="C60" s="183"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="184"/>
+      <c r="F60" s="185"/>
+      <c r="G60" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="175"/>
-      <c r="I58" s="176"/>
-      <c r="J58" s="183" t="s">
+      <c r="H60" s="175"/>
+      <c r="I60" s="176"/>
+      <c r="J60" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="K58" s="184"/>
-      <c r="L58" s="185"/>
-    </row>
-    <row r="59" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="174" t="s">
+      <c r="K60" s="184"/>
+      <c r="L60" s="185"/>
+    </row>
+    <row r="61" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="175"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="177" t="s">
+      <c r="B61" s="175"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="178"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="180" t="s">
+      <c r="E61" s="178"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="181"/>
-      <c r="I59" s="182"/>
-      <c r="J59" s="183" t="s">
+      <c r="H61" s="181"/>
+      <c r="I61" s="182"/>
+      <c r="J61" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="184"/>
-      <c r="L59" s="185"/>
-    </row>
-    <row r="60" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="186" t="s">
+      <c r="K61" s="184"/>
+      <c r="L61" s="185"/>
+    </row>
+    <row r="62" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="187"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="192" t="s">
+      <c r="B62" s="187"/>
+      <c r="C62" s="188"/>
+      <c r="D62" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="193"/>
-      <c r="F60" s="194"/>
-      <c r="G60" s="195" t="s">
+      <c r="E62" s="193"/>
+      <c r="F62" s="194"/>
+      <c r="G62" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="196"/>
-      <c r="I60" s="197"/>
-      <c r="J60" s="24" t="s">
+      <c r="H62" s="196"/>
+      <c r="I62" s="197"/>
+      <c r="J62" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K60" s="25"/>
-      <c r="L60" s="26"/>
-    </row>
-    <row r="61" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="189"/>
-      <c r="B61" s="190"/>
-      <c r="C61" s="191"/>
-      <c r="D61" s="192" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="193"/>
-      <c r="F61" s="194"/>
-      <c r="G61" s="198" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="199"/>
-      <c r="I61" s="200"/>
-      <c r="J61" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K61" s="25"/>
-      <c r="L61" s="26"/>
-    </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="26"/>
     </row>
-    <row r="63" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="166"/>
-      <c r="I63" s="166"/>
-      <c r="J63" s="166"/>
-      <c r="K63" s="166"/>
-      <c r="L63" s="167"/>
-    </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="189"/>
+      <c r="B63" s="190"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="193"/>
+      <c r="F63" s="194"/>
+      <c r="G63" s="198" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="199"/>
+      <c r="I63" s="200"/>
+      <c r="J63" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" s="25"/>
+      <c r="L63" s="26"/>
+    </row>
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
       <c r="F64" s="30"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="34"/>
-    </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="168" t="s">
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="132"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="166"/>
+      <c r="I65" s="166"/>
+      <c r="J65" s="166"/>
+      <c r="K65" s="166"/>
+      <c r="L65" s="167"/>
+    </row>
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="34"/>
+    </row>
+    <row r="67" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="169"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="169"/>
-      <c r="E65" s="170"/>
-      <c r="H65" s="77" t="s">
+      <c r="B67" s="169"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="169"/>
+      <c r="E67" s="170"/>
+      <c r="H67" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="122"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="127"/>
-    </row>
-    <row r="66" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="131" t="s">
+      <c r="I67" s="122"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="127"/>
+    </row>
+    <row r="68" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="132"/>
-      <c r="C66" s="171"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="173"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="130"/>
-    </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="77" t="s">
+      <c r="B68" s="132"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="173"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="130"/>
+    </row>
+    <row r="69" spans="1:12" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="78"/>
-      <c r="C67" s="102" t="s">
+      <c r="B69" s="78"/>
+      <c r="C69" s="102" t="s">
         <v>28</v>
-      </c>
-      <c r="D67" s="140"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="I67" s="88"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="90"/>
-      <c r="L67" s="91"/>
-    </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="79"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68" s="36"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="91"/>
-    </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="136" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="137"/>
-      <c r="C69" s="102" t="s">
-        <v>30</v>
       </c>
       <c r="D69" s="140"/>
       <c r="E69" s="103"/>
       <c r="F69" s="12"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" s="143"/>
-      <c r="J69" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="K69" s="146"/>
-      <c r="L69" s="147"/>
-    </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="138"/>
-      <c r="B70" s="139"/>
+      <c r="H69" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="88"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="91"/>
+    </row>
+    <row r="70" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="79"/>
+      <c r="B70" s="80"/>
       <c r="C70" s="104"/>
       <c r="D70" s="141"/>
       <c r="E70" s="105"/>
-      <c r="F70" s="151"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="138"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="150"/>
-    </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="59" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="36"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="91"/>
+    </row>
+    <row r="71" spans="1:12" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="137"/>
+      <c r="C71" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="140"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="143"/>
+      <c r="J71" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="K71" s="146"/>
+      <c r="L71" s="147"/>
+    </row>
+    <row r="72" spans="1:12" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="138"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="151"/>
+      <c r="G72" s="152"/>
+      <c r="H72" s="138"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="148"/>
+      <c r="K72" s="149"/>
+      <c r="L72" s="150"/>
+    </row>
+    <row r="73" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-    </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="153"/>
-      <c r="B72" s="153"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="153"/>
-      <c r="E72" s="153"/>
-      <c r="F72" s="153"/>
-      <c r="G72" s="153"/>
-      <c r="H72" s="153"/>
-      <c r="I72" s="153"/>
-      <c r="J72" s="153"/>
-      <c r="K72" s="153"/>
-      <c r="L72" s="153"/>
-    </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-    </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="154"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="155"/>
-      <c r="G74" s="155"/>
-      <c r="H74" s="155"/>
-      <c r="I74" s="155"/>
-      <c r="J74" s="156"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-    </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+    </row>
+    <row r="74" spans="1:12" s="4" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="153"/>
+      <c r="B74" s="153"/>
+      <c r="C74" s="153"/>
+      <c r="D74" s="153"/>
+      <c r="E74" s="153"/>
+      <c r="F74" s="153"/>
+      <c r="G74" s="153"/>
+      <c r="H74" s="153"/>
+      <c r="I74" s="153"/>
+      <c r="J74" s="153"/>
+      <c r="K74" s="153"/>
+      <c r="L74" s="153"/>
+    </row>
+    <row r="75" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
-      <c r="C75" s="157"/>
-      <c r="D75" s="158"/>
-      <c r="E75" s="158"/>
-      <c r="F75" s="158"/>
-      <c r="G75" s="158"/>
-      <c r="H75" s="158"/>
-      <c r="I75" s="158"/>
-      <c r="J75" s="159"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-    </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="157"/>
-      <c r="D76" s="158"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="158"/>
-      <c r="G76" s="158"/>
-      <c r="H76" s="158"/>
-      <c r="I76" s="158"/>
-      <c r="J76" s="159"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-    </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
+      <c r="C75" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+    </row>
+    <row r="76" spans="1:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="155"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="155"/>
+      <c r="G76" s="155"/>
+      <c r="H76" s="155"/>
+      <c r="I76" s="155"/>
+      <c r="J76" s="156"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+    </row>
+    <row r="77" spans="1:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="157"/>
       <c r="D77" s="158"/>
       <c r="E77" s="158"/>
@@ -4200,9 +4172,9 @@
       <c r="K77" s="37"/>
       <c r="L77" s="37"/>
     </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+    <row r="78" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="157"/>
       <c r="D78" s="158"/>
       <c r="E78" s="158"/>
@@ -4214,9 +4186,9 @@
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
     </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+    <row r="79" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="157"/>
       <c r="D79" s="158"/>
       <c r="E79" s="158"/>
@@ -4228,7 +4200,7 @@
       <c r="K79" s="37"/>
       <c r="L79" s="37"/>
     </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="157"/>
@@ -4242,7 +4214,7 @@
       <c r="K80" s="37"/>
       <c r="L80" s="37"/>
     </row>
-    <row r="81" spans="1:17" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="157"/>
@@ -4256,7 +4228,7 @@
       <c r="K81" s="37"/>
       <c r="L81" s="37"/>
     </row>
-    <row r="82" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="157"/>
@@ -4270,93 +4242,93 @@
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
     </row>
-    <row r="83" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="160"/>
-      <c r="D83" s="161"/>
-      <c r="E83" s="161"/>
-      <c r="F83" s="161"/>
-      <c r="G83" s="161"/>
-      <c r="H83" s="161"/>
-      <c r="I83" s="161"/>
-      <c r="J83" s="162"/>
+    <row r="83" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="157"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="158"/>
+      <c r="F83" s="158"/>
+      <c r="G83" s="158"/>
+      <c r="H83" s="158"/>
+      <c r="I83" s="158"/>
+      <c r="J83" s="159"/>
       <c r="K83" s="37"/>
       <c r="L83" s="37"/>
     </row>
-    <row r="84" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="158"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="159"/>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
     </row>
-    <row r="85" spans="1:17" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="102" t="s">
+    <row r="85" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="161"/>
+      <c r="G85" s="161"/>
+      <c r="H85" s="161"/>
+      <c r="I85" s="161"/>
+      <c r="J85" s="162"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+    </row>
+    <row r="86" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+    </row>
+    <row r="87" spans="1:12" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="103"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="107"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="107"/>
-      <c r="K85" s="107"/>
-      <c r="L85" s="108"/>
-    </row>
-    <row r="86" spans="1:17" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="104"/>
-      <c r="B86" s="105"/>
-      <c r="C86" s="109"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="110"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="111"/>
-      <c r="B88" s="112"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
-      <c r="G88" s="112"/>
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
-      <c r="J88" s="112"/>
-      <c r="K88" s="112"/>
-      <c r="L88" s="113"/>
-    </row>
-    <row r="89" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="103"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="107"/>
+      <c r="K87" s="107"/>
+      <c r="L87" s="108"/>
+    </row>
+    <row r="88" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="104"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="110"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4370,185 +4342,183 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
-      <c r="E90" s="116"/>
-    </row>
-    <row r="91" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="117"/>
-      <c r="B91" s="118"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="121"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="122"/>
-      <c r="J91" s="125"/>
-      <c r="K91" s="126"/>
-      <c r="L91" s="127"/>
-    </row>
-    <row r="92" spans="1:17" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="131"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="134"/>
-      <c r="E92" s="135"/>
-      <c r="H92" s="123"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="128"/>
-      <c r="K92" s="129"/>
-      <c r="L92" s="130"/>
-    </row>
-    <row r="93" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="77"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="88"/>
-      <c r="J93" s="89"/>
-      <c r="K93" s="90"/>
-      <c r="L93" s="91"/>
-    </row>
-    <row r="94" spans="1:17" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="79"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="90"/>
-      <c r="L94" s="91"/>
-    </row>
-    <row r="95" spans="1:17" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="92"/>
-      <c r="B95" s="93"/>
-      <c r="C95" s="94"/>
-      <c r="D95" s="95"/>
-      <c r="E95" s="96"/>
+    <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="111"/>
+      <c r="B90" s="112"/>
+      <c r="C90" s="112"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="112"/>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="113"/>
+    </row>
+    <row r="91" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="114"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="115"/>
+      <c r="D92" s="115"/>
+      <c r="E92" s="116"/>
+    </row>
+    <row r="93" spans="1:12" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="117"/>
+      <c r="B93" s="118"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="121"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="125"/>
+      <c r="K93" s="126"/>
+      <c r="L93" s="127"/>
+    </row>
+    <row r="94" spans="1:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="131"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="133"/>
+      <c r="D94" s="134"/>
+      <c r="E94" s="135"/>
+      <c r="H94" s="123"/>
+      <c r="I94" s="124"/>
+      <c r="J94" s="128"/>
+      <c r="K94" s="129"/>
+      <c r="L94" s="130"/>
+    </row>
+    <row r="95" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="77"/>
+      <c r="B95" s="78"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="83"/>
       <c r="F95" s="12"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="99"/>
-      <c r="K95" s="100"/>
-      <c r="L95" s="101"/>
-    </row>
-    <row r="96" spans="1:17" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="58"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="88"/>
+      <c r="J95" s="89"/>
+      <c r="K95" s="90"/>
+      <c r="L95" s="91"/>
+    </row>
+    <row r="96" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="79"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="86"/>
       <c r="F96" s="12"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="Q96" s="60"/>
-    </row>
-    <row r="97" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="Q97" s="60"/>
-    </row>
-    <row r="98" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="61"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="61"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="61"/>
-      <c r="I98" s="61"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="61"/>
-      <c r="L98" s="61"/>
-      <c r="O98" s="43"/>
-    </row>
-    <row r="99" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="O99" s="60"/>
-    </row>
-    <row r="100" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="65"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="37"/>
-      <c r="O100" s="60"/>
-    </row>
-    <row r="101" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="69"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="89"/>
+      <c r="K96" s="90"/>
+      <c r="L96" s="91"/>
+    </row>
+    <row r="97" spans="1:19" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="92"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="94"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="98"/>
+      <c r="J97" s="99"/>
+      <c r="K97" s="100"/>
+      <c r="L97" s="101"/>
+    </row>
+    <row r="98" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="54"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="Q98" s="60"/>
+    </row>
+    <row r="99" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="Q99" s="60"/>
+    </row>
+    <row r="100" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="61"/>
+      <c r="K100" s="61"/>
+      <c r="L100" s="61"/>
+      <c r="O100" s="43"/>
+    </row>
+    <row r="101" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
       <c r="O101" s="60"/>
     </row>
     <row r="102" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="74"/>
-      <c r="B102" s="75"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="70"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="67"/>
       <c r="K102" s="37"/>
       <c r="L102" s="37"/>
       <c r="O102" s="60"/>
     </row>
-    <row r="103" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
-      <c r="B103" s="76"/>
+    <row r="103" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="68"/>
       <c r="D103" s="69"/>
       <c r="E103" s="69"/>
@@ -4561,9 +4531,9 @@
       <c r="L103" s="37"/>
       <c r="O103" s="60"/>
     </row>
-    <row r="104" spans="1:19" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="76"/>
+    <row r="104" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="74"/>
+      <c r="B104" s="75"/>
       <c r="C104" s="68"/>
       <c r="D104" s="69"/>
       <c r="E104" s="69"/>
@@ -4574,10 +4544,11 @@
       <c r="J104" s="70"/>
       <c r="K104" s="37"/>
       <c r="L104" s="37"/>
-    </row>
-    <row r="105" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="74"/>
-      <c r="B105" s="75"/>
+      <c r="O104" s="60"/>
+    </row>
+    <row r="105" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="45"/>
+      <c r="B105" s="76"/>
       <c r="C105" s="68"/>
       <c r="D105" s="69"/>
       <c r="E105" s="69"/>
@@ -4588,8 +4559,9 @@
       <c r="J105" s="70"/>
       <c r="K105" s="37"/>
       <c r="L105" s="37"/>
-    </row>
-    <row r="106" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="60"/>
+    </row>
+    <row r="106" spans="1:19" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45"/>
       <c r="B106" s="76"/>
       <c r="C106" s="68"/>
@@ -4603,9 +4575,9 @@
       <c r="K106" s="37"/>
       <c r="L106" s="37"/>
     </row>
-    <row r="107" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
+    <row r="107" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="74"/>
+      <c r="B107" s="75"/>
       <c r="C107" s="68"/>
       <c r="D107" s="69"/>
       <c r="E107" s="69"/>
@@ -4617,9 +4589,9 @@
       <c r="K107" s="37"/>
       <c r="L107" s="37"/>
     </row>
-    <row r="108" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="74"/>
-      <c r="B108" s="75"/>
+    <row r="108" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="45"/>
+      <c r="B108" s="76"/>
       <c r="C108" s="68"/>
       <c r="D108" s="69"/>
       <c r="E108" s="69"/>
@@ -4630,12 +4602,10 @@
       <c r="J108" s="70"/>
       <c r="K108" s="37"/>
       <c r="L108" s="37"/>
-      <c r="R108" s="44"/>
-      <c r="S108" s="44"/>
-    </row>
-    <row r="109" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="76"/>
+    </row>
+    <row r="109" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="68"/>
       <c r="D109" s="69"/>
       <c r="E109" s="69"/>
@@ -4646,73 +4616,103 @@
       <c r="J109" s="70"/>
       <c r="K109" s="37"/>
       <c r="L109" s="37"/>
-      <c r="R109" s="44"/>
-      <c r="S109" s="44"/>
-    </row>
-    <row r="110" spans="1:19" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="74"/>
       <c r="B110" s="75"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="72"/>
-      <c r="H110" s="72"/>
-      <c r="I110" s="72"/>
-      <c r="J110" s="73"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="69"/>
+      <c r="I110" s="69"/>
+      <c r="J110" s="70"/>
       <c r="K110" s="37"/>
       <c r="L110" s="37"/>
       <c r="R110" s="44"/>
       <c r="S110" s="44"/>
     </row>
-    <row r="111" spans="1:19" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="46"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
+      <c r="B111" s="76"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="69"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="70"/>
       <c r="K111" s="37"/>
       <c r="L111" s="37"/>
       <c r="R111" s="44"/>
       <c r="S111" s="44"/>
     </row>
-    <row r="112" spans="1:19" s="4" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="40"/>
-      <c r="G112" s="41"/>
+    <row r="112" spans="1:19" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="74"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="71"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="73"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
       <c r="R112" s="44"/>
       <c r="S112" s="44"/>
     </row>
-    <row r="113" spans="1:19" s="4" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="50"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="52"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="52"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="53"/>
+    <row r="113" spans="1:19" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="40"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
       <c r="R113" s="44"/>
       <c r="S113" s="44"/>
     </row>
-    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="4" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="41"/>
       <c r="R114" s="44"/>
       <c r="S114" s="44"/>
+    </row>
+    <row r="115" spans="1:19" s="4" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" s="50"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="53"/>
+      <c r="R115" s="44"/>
+      <c r="S115" s="44"/>
+    </row>
+    <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R116" s="44"/>
+      <c r="S116" s="44"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4770,86 +4770,86 @@
     <mergeCell ref="C45:L46"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="A60:C61"/>
-    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:F60"/>
     <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="G61:I61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H65:I66"/>
-    <mergeCell ref="J65:L66"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="A67:B68"/>
-    <mergeCell ref="C67:E68"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="A62:C63"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="J67:L68"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:E68"/>
     <mergeCell ref="A69:B70"/>
     <mergeCell ref="C69:E70"/>
-    <mergeCell ref="H69:I70"/>
-    <mergeCell ref="J69:L70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A72:L72"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="C74:J83"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C85:L86"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="H91:I92"/>
-    <mergeCell ref="J91:L92"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="C93:E94"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:L93"/>
-    <mergeCell ref="J94:L94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="H71:I72"/>
+    <mergeCell ref="J71:L72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A73:L73"/>
+    <mergeCell ref="A74:L74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J85"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:L88"/>
+    <mergeCell ref="A90:L90"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="H93:I94"/>
+    <mergeCell ref="J93:L94"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="A95:B96"/>
+    <mergeCell ref="C95:E96"/>
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="J95:L95"/>
-    <mergeCell ref="Q96:Q97"/>
-    <mergeCell ref="A98:L98"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C100:J110"/>
-    <mergeCell ref="O99:O103"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="A100:L100"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="C102:J112"/>
+    <mergeCell ref="O101:O105"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:E111"/>
     <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:E112"/>
     <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:L113"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="A97:L97"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:L115"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="A99:L99"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4859,7 +4859,7 @@
 &amp;6&amp;F</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="52" max="11" man="1"/>
+    <brk id="50" max="11" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2497421-5C30-4FB4-B5B6-41753B467CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7528FE46-6CF9-4159-A818-C72B2E721A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'RAPORT WYDANIA F-NR 15'!$A$1:$L$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'RAPORT WYDANIA F-NR 15'!$A$1:$L$113</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -2303,226 +2303,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>268940</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>605119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>324969</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1842711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313204</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>212910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>432247</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>427984</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>571502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533402</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1781212</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>401171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>1512795</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>51547</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
@@ -2538,7 +2318,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2582,7 +2362,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2371,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2612,13 +2392,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>980322</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>372104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2626,7 +2406,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2656,13 +2436,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>627531</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594843</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>349691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2670,7 +2450,51 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>481853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1929574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B690FD-B403-47C5-9ED2-EB8F6B33EDB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,8 +2510,277 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="3104030" y="1053353"/>
+          <a:ext cx="2252382" cy="1447721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>560294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2008015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0ED3731-71F6-4636-A76C-A7EAEA142AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7519147" y="1131794"/>
+          <a:ext cx="2252382" cy="1447721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>528839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF96208-2B24-4C52-B757-569148D09D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3944471" y="11049000"/>
+          <a:ext cx="2252382" cy="1447721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>103015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516E1674-5764-4AD4-930E-054C56A7459A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4112559" y="24787412"/>
+          <a:ext cx="2252382" cy="1447721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>324970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761998</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1772691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D624AC-31B1-467F-AD93-6E3DD54DE67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="268940" y="18310411"/>
+          <a:ext cx="2252382" cy="1447721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>246530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1694251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5E2DFD-6C17-4279-8C9D-06281AA71474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362265" y="18231971"/>
+          <a:ext cx="2252382" cy="1447721"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105596</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1133475"/>
+          <a:ext cx="1934396" cy="1447721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3074,10 +3167,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S116"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3708,7 @@
       <c r="K37" s="218"/>
       <c r="L37" s="218"/>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="213"/>
       <c r="B38" s="213"/>
       <c r="C38" s="223"/>
@@ -3800,367 +3893,417 @@
       </c>
       <c r="M50" s="21"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="203" t="s">
+    <row r="51" spans="1:13" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="M51" s="21"/>
+    </row>
+    <row r="52" spans="1:13" s="17" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="M52" s="21"/>
+    </row>
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:13" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="204"/>
-      <c r="C56" s="205" t="s">
+      <c r="B54" s="204"/>
+      <c r="C54" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="206"/>
-      <c r="G56" s="207"/>
-      <c r="H56" s="203" t="s">
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="207"/>
+      <c r="H54" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="I56" s="208"/>
-      <c r="J56" s="208"/>
-      <c r="K56" s="208"/>
-      <c r="L56" s="204"/>
+      <c r="I54" s="208"/>
+      <c r="J54" s="208"/>
+      <c r="K54" s="208"/>
+      <c r="L54" s="204"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="209" t="s">
+    <row r="57" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="209" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="210"/>
-      <c r="C59" s="210"/>
-      <c r="D59" s="210"/>
-      <c r="E59" s="210"/>
-      <c r="F59" s="210"/>
-      <c r="G59" s="210"/>
-      <c r="H59" s="210"/>
-      <c r="I59" s="210"/>
-      <c r="J59" s="210"/>
-      <c r="K59" s="210"/>
-      <c r="L59" s="211"/>
-    </row>
-    <row r="60" spans="1:13" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="174" t="s">
+      <c r="B57" s="210"/>
+      <c r="C57" s="210"/>
+      <c r="D57" s="210"/>
+      <c r="E57" s="210"/>
+      <c r="F57" s="210"/>
+      <c r="G57" s="210"/>
+      <c r="H57" s="210"/>
+      <c r="I57" s="210"/>
+      <c r="J57" s="210"/>
+      <c r="K57" s="210"/>
+      <c r="L57" s="211"/>
+    </row>
+    <row r="58" spans="1:13" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="176"/>
-      <c r="C60" s="183"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="185"/>
-      <c r="G60" s="174" t="s">
+      <c r="B58" s="176"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="184"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="175"/>
-      <c r="I60" s="176"/>
-      <c r="J60" s="183" t="s">
+      <c r="H58" s="175"/>
+      <c r="I58" s="176"/>
+      <c r="J58" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="K60" s="184"/>
-      <c r="L60" s="185"/>
-    </row>
-    <row r="61" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="174" t="s">
+      <c r="K58" s="184"/>
+      <c r="L58" s="185"/>
+    </row>
+    <row r="59" spans="1:13" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="175"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="177" t="s">
+      <c r="B59" s="175"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="178"/>
-      <c r="F61" s="179"/>
-      <c r="G61" s="180" t="s">
+      <c r="E59" s="178"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="181"/>
-      <c r="I61" s="182"/>
-      <c r="J61" s="183" t="s">
+      <c r="H59" s="181"/>
+      <c r="I59" s="182"/>
+      <c r="J59" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="184"/>
-      <c r="L61" s="185"/>
-    </row>
-    <row r="62" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="186" t="s">
+      <c r="K59" s="184"/>
+      <c r="L59" s="185"/>
+    </row>
+    <row r="60" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="187"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="192" t="s">
+      <c r="B60" s="187"/>
+      <c r="C60" s="188"/>
+      <c r="D60" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="193"/>
-      <c r="F62" s="194"/>
-      <c r="G62" s="195" t="s">
+      <c r="E60" s="193"/>
+      <c r="F60" s="194"/>
+      <c r="G60" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="196"/>
-      <c r="I62" s="197"/>
-      <c r="J62" s="24" t="s">
+      <c r="H60" s="196"/>
+      <c r="I60" s="197"/>
+      <c r="J60" s="24" t="s">
         <v>45</v>
       </c>
+      <c r="K60" s="25"/>
+      <c r="L60" s="26"/>
+    </row>
+    <row r="61" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="189"/>
+      <c r="B61" s="190"/>
+      <c r="C61" s="191"/>
+      <c r="D61" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="193"/>
+      <c r="F61" s="194"/>
+      <c r="G61" s="198" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="199"/>
+      <c r="I61" s="200"/>
+      <c r="J61" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="25"/>
+      <c r="L61" s="26"/>
+    </row>
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="26"/>
     </row>
-    <row r="63" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="189"/>
-      <c r="B63" s="190"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="192" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="193"/>
-      <c r="F63" s="194"/>
-      <c r="G63" s="198" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="199"/>
-      <c r="I63" s="200"/>
-      <c r="J63" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="25"/>
-      <c r="L63" s="26"/>
-    </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="132"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="166"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="166"/>
+      <c r="K63" s="166"/>
+      <c r="L63" s="167"/>
+    </row>
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="30"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="26"/>
-    </row>
-    <row r="65" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="132"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="166"/>
-      <c r="I65" s="166"/>
-      <c r="J65" s="166"/>
-      <c r="K65" s="166"/>
-      <c r="L65" s="167"/>
-    </row>
-    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="34"/>
-    </row>
-    <row r="67" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="168" t="s">
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="34"/>
+    </row>
+    <row r="65" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
-      <c r="D67" s="169"/>
-      <c r="E67" s="170"/>
-      <c r="H67" s="77" t="s">
+      <c r="B65" s="169"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="169"/>
+      <c r="E65" s="170"/>
+      <c r="H65" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="I67" s="122"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="127"/>
-    </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="131" t="s">
+      <c r="I65" s="122"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="127"/>
+    </row>
+    <row r="66" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="132"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="173"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="130"/>
-    </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="77" t="s">
+      <c r="B66" s="132"/>
+      <c r="C66" s="171"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="173"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="130"/>
+    </row>
+    <row r="67" spans="1:12" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="140"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="88"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="91"/>
+    </row>
+    <row r="68" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="79"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="36"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="91"/>
+    </row>
+    <row r="69" spans="1:12" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="137"/>
       <c r="C69" s="102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" s="140"/>
       <c r="E69" s="103"/>
       <c r="F69" s="12"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="I69" s="88"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="91"/>
-    </row>
-    <row r="70" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="79"/>
-      <c r="B70" s="80"/>
+      <c r="H69" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" s="143"/>
+      <c r="J69" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="K69" s="146"/>
+      <c r="L69" s="147"/>
+    </row>
+    <row r="70" spans="1:12" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="138"/>
+      <c r="B70" s="139"/>
       <c r="C70" s="104"/>
       <c r="D70" s="141"/>
       <c r="E70" s="105"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I70" s="36"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="90"/>
-      <c r="L70" s="91"/>
-    </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="136" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="137"/>
-      <c r="C71" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="140"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="142" t="s">
-        <v>50</v>
-      </c>
-      <c r="I71" s="143"/>
-      <c r="J71" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="K71" s="146"/>
-      <c r="L71" s="147"/>
-    </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="138"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="141"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="144"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="149"/>
-      <c r="L72" s="150"/>
-    </row>
-    <row r="73" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="59" t="s">
+      <c r="F70" s="151"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="150"/>
+    </row>
+    <row r="71" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-    </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="153"/>
-      <c r="B74" s="153"/>
-      <c r="C74" s="153"/>
-      <c r="D74" s="153"/>
-      <c r="E74" s="153"/>
-      <c r="F74" s="153"/>
-      <c r="G74" s="153"/>
-      <c r="H74" s="153"/>
-      <c r="I74" s="153"/>
-      <c r="J74" s="153"/>
-      <c r="K74" s="153"/>
-      <c r="L74" s="153"/>
-    </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+    </row>
+    <row r="72" spans="1:12" s="4" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="153"/>
+      <c r="B72" s="153"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="153"/>
+      <c r="L72" s="153"/>
+    </row>
+    <row r="73" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+    </row>
+    <row r="74" spans="1:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="155"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="155"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="155"/>
+      <c r="I74" s="155"/>
+      <c r="J74" s="156"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+    </row>
+    <row r="75" spans="1:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
-      <c r="C75" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="64"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-    </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="155"/>
-      <c r="E76" s="155"/>
-      <c r="F76" s="155"/>
-      <c r="G76" s="155"/>
-      <c r="H76" s="155"/>
-      <c r="I76" s="155"/>
-      <c r="J76" s="156"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-    </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
+      <c r="J75" s="159"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+    </row>
+    <row r="76" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="157"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="159"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+    </row>
+    <row r="77" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="157"/>
       <c r="D77" s="158"/>
       <c r="E77" s="158"/>
@@ -4172,9 +4315,9 @@
       <c r="K77" s="37"/>
       <c r="L77" s="37"/>
     </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+    <row r="78" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
       <c r="C78" s="157"/>
       <c r="D78" s="158"/>
       <c r="E78" s="158"/>
@@ -4186,9 +4329,9 @@
       <c r="K78" s="37"/>
       <c r="L78" s="37"/>
     </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
+    <row r="79" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
       <c r="C79" s="157"/>
       <c r="D79" s="158"/>
       <c r="E79" s="158"/>
@@ -4200,7 +4343,7 @@
       <c r="K79" s="37"/>
       <c r="L79" s="37"/>
     </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="157"/>
@@ -4214,7 +4357,7 @@
       <c r="K80" s="37"/>
       <c r="L80" s="37"/>
     </row>
-    <row r="81" spans="1:12" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="157"/>
@@ -4228,7 +4371,7 @@
       <c r="K81" s="37"/>
       <c r="L81" s="37"/>
     </row>
-    <row r="82" spans="1:12" s="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="157"/>
@@ -4242,93 +4385,93 @@
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
     </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="157"/>
-      <c r="D83" s="158"/>
-      <c r="E83" s="158"/>
-      <c r="F83" s="158"/>
-      <c r="G83" s="158"/>
-      <c r="H83" s="158"/>
-      <c r="I83" s="158"/>
-      <c r="J83" s="159"/>
+    <row r="83" spans="1:17" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="160"/>
+      <c r="D83" s="161"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="161"/>
+      <c r="G83" s="161"/>
+      <c r="H83" s="161"/>
+      <c r="I83" s="161"/>
+      <c r="J83" s="162"/>
       <c r="K83" s="37"/>
       <c r="L83" s="37"/>
     </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
-      <c r="C84" s="157"/>
-      <c r="D84" s="158"/>
-      <c r="E84" s="158"/>
-      <c r="F84" s="158"/>
-      <c r="G84" s="158"/>
-      <c r="H84" s="158"/>
-      <c r="I84" s="158"/>
-      <c r="J84" s="159"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
     </row>
-    <row r="85" spans="1:12" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="160"/>
-      <c r="D85" s="161"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="161"/>
-      <c r="G85" s="161"/>
-      <c r="H85" s="161"/>
-      <c r="I85" s="161"/>
-      <c r="J85" s="162"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-    </row>
-    <row r="86" spans="1:12" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-    </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="102" t="s">
+    <row r="85" spans="1:17" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="103"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="107"/>
-      <c r="J87" s="107"/>
-      <c r="K87" s="107"/>
-      <c r="L87" s="108"/>
-    </row>
-    <row r="88" spans="1:12" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="104"/>
-      <c r="B88" s="105"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="110"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="103"/>
+      <c r="C85" s="106"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="107"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="108"/>
+    </row>
+    <row r="86" spans="1:17" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="104"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="109"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="110"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+    </row>
+    <row r="88" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="111"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="112"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="112"/>
+      <c r="K88" s="112"/>
+      <c r="L88" s="113"/>
+    </row>
+    <row r="89" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4342,183 +4485,185 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="111"/>
-      <c r="B90" s="112"/>
-      <c r="C90" s="112"/>
-      <c r="D90" s="112"/>
-      <c r="E90" s="112"/>
-      <c r="F90" s="112"/>
-      <c r="G90" s="112"/>
-      <c r="H90" s="112"/>
-      <c r="I90" s="112"/>
-      <c r="J90" s="112"/>
-      <c r="K90" s="112"/>
-      <c r="L90" s="113"/>
-    </row>
-    <row r="91" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
-      <c r="E92" s="116"/>
-    </row>
-    <row r="93" spans="1:12" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="117"/>
-      <c r="B93" s="118"/>
-      <c r="C93" s="119"/>
-      <c r="D93" s="120"/>
-      <c r="E93" s="121"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="125"/>
-      <c r="K93" s="126"/>
-      <c r="L93" s="127"/>
-    </row>
-    <row r="94" spans="1:12" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="131"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="133"/>
-      <c r="D94" s="134"/>
-      <c r="E94" s="135"/>
-      <c r="H94" s="123"/>
-      <c r="I94" s="124"/>
-      <c r="J94" s="128"/>
-      <c r="K94" s="129"/>
-      <c r="L94" s="130"/>
-    </row>
-    <row r="95" spans="1:12" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="77"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="83"/>
+    <row r="90" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="114"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="116"/>
+    </row>
+    <row r="91" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="117"/>
+      <c r="B91" s="118"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="121"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="122"/>
+      <c r="J91" s="125"/>
+      <c r="K91" s="126"/>
+      <c r="L91" s="127"/>
+    </row>
+    <row r="92" spans="1:17" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="131"/>
+      <c r="B92" s="132"/>
+      <c r="C92" s="133"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="135"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="124"/>
+      <c r="J92" s="128"/>
+      <c r="K92" s="129"/>
+      <c r="L92" s="130"/>
+    </row>
+    <row r="93" spans="1:17" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="77"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="89"/>
+      <c r="K93" s="90"/>
+      <c r="L93" s="91"/>
+    </row>
+    <row r="94" spans="1:17" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="79"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="89"/>
+      <c r="K94" s="90"/>
+      <c r="L94" s="91"/>
+    </row>
+    <row r="95" spans="1:17" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="92"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="96"/>
       <c r="F95" s="12"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="88"/>
-      <c r="J95" s="89"/>
-      <c r="K95" s="90"/>
-      <c r="L95" s="91"/>
-    </row>
-    <row r="96" spans="1:12" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="79"/>
-      <c r="B96" s="80"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="86"/>
+      <c r="H95" s="97"/>
+      <c r="I95" s="98"/>
+      <c r="J95" s="99"/>
+      <c r="K95" s="100"/>
+      <c r="L95" s="101"/>
+    </row>
+    <row r="96" spans="1:17" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="54"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="58"/>
       <c r="F96" s="12"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="90"/>
-      <c r="L96" s="91"/>
-    </row>
-    <row r="97" spans="1:19" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="92"/>
-      <c r="B97" s="93"/>
-      <c r="C97" s="94"/>
-      <c r="D97" s="95"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="97"/>
-      <c r="I97" s="98"/>
-      <c r="J97" s="99"/>
-      <c r="K97" s="100"/>
-      <c r="L97" s="101"/>
-    </row>
-    <row r="98" spans="1:19" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="56"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="38"/>
-      <c r="Q98" s="60"/>
-    </row>
-    <row r="99" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="Q99" s="60"/>
-    </row>
-    <row r="100" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-      <c r="L100" s="61"/>
-      <c r="O100" s="43"/>
-    </row>
-    <row r="101" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="63"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="63"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="38"/>
+      <c r="Q96" s="60"/>
+    </row>
+    <row r="97" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="Q97" s="60"/>
+    </row>
+    <row r="98" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="61"/>
+      <c r="K98" s="61"/>
+      <c r="L98" s="61"/>
+      <c r="O98" s="43"/>
+    </row>
+    <row r="99" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="O99" s="60"/>
+    </row>
+    <row r="100" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="65"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="O100" s="60"/>
+    </row>
+    <row r="101" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="69"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="69"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
       <c r="O101" s="60"/>
     </row>
     <row r="102" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="65"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="67"/>
+      <c r="A102" s="74"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="70"/>
       <c r="K102" s="37"/>
       <c r="L102" s="37"/>
       <c r="O102" s="60"/>
     </row>
-    <row r="103" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
+    <row r="103" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="45"/>
+      <c r="B103" s="76"/>
       <c r="C103" s="68"/>
       <c r="D103" s="69"/>
       <c r="E103" s="69"/>
@@ -4531,9 +4676,9 @@
       <c r="L103" s="37"/>
       <c r="O103" s="60"/>
     </row>
-    <row r="104" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="74"/>
-      <c r="B104" s="75"/>
+    <row r="104" spans="1:19" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="45"/>
+      <c r="B104" s="76"/>
       <c r="C104" s="68"/>
       <c r="D104" s="69"/>
       <c r="E104" s="69"/>
@@ -4544,11 +4689,10 @@
       <c r="J104" s="70"/>
       <c r="K104" s="37"/>
       <c r="L104" s="37"/>
-      <c r="O104" s="60"/>
-    </row>
-    <row r="105" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="76"/>
+    </row>
+    <row r="105" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="74"/>
+      <c r="B105" s="75"/>
       <c r="C105" s="68"/>
       <c r="D105" s="69"/>
       <c r="E105" s="69"/>
@@ -4559,9 +4703,8 @@
       <c r="J105" s="70"/>
       <c r="K105" s="37"/>
       <c r="L105" s="37"/>
-      <c r="O105" s="60"/>
-    </row>
-    <row r="106" spans="1:19" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45"/>
       <c r="B106" s="76"/>
       <c r="C106" s="68"/>
@@ -4575,9 +4718,9 @@
       <c r="K106" s="37"/>
       <c r="L106" s="37"/>
     </row>
-    <row r="107" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="74"/>
-      <c r="B107" s="75"/>
+    <row r="107" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="68"/>
       <c r="D107" s="69"/>
       <c r="E107" s="69"/>
@@ -4589,9 +4732,9 @@
       <c r="K107" s="37"/>
       <c r="L107" s="37"/>
     </row>
-    <row r="108" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="76"/>
+    <row r="108" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="74"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="68"/>
       <c r="D108" s="69"/>
       <c r="E108" s="69"/>
@@ -4602,10 +4745,12 @@
       <c r="J108" s="70"/>
       <c r="K108" s="37"/>
       <c r="L108" s="37"/>
-    </row>
-    <row r="109" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
+      <c r="R108" s="44"/>
+      <c r="S108" s="44"/>
+    </row>
+    <row r="109" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="45"/>
+      <c r="B109" s="76"/>
       <c r="C109" s="68"/>
       <c r="D109" s="69"/>
       <c r="E109" s="69"/>
@@ -4616,103 +4761,73 @@
       <c r="J109" s="70"/>
       <c r="K109" s="37"/>
       <c r="L109" s="37"/>
-    </row>
-    <row r="110" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R109" s="44"/>
+      <c r="S109" s="44"/>
+    </row>
+    <row r="110" spans="1:19" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="74"/>
       <c r="B110" s="75"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="69"/>
-      <c r="I110" s="69"/>
-      <c r="J110" s="70"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="73"/>
       <c r="K110" s="37"/>
       <c r="L110" s="37"/>
       <c r="R110" s="44"/>
       <c r="S110" s="44"/>
     </row>
-    <row r="111" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="45"/>
-      <c r="B111" s="76"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
-      <c r="J111" s="70"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
       <c r="K111" s="37"/>
       <c r="L111" s="37"/>
       <c r="R111" s="44"/>
       <c r="S111" s="44"/>
     </row>
-    <row r="112" spans="1:19" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="74"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="71"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="72"/>
-      <c r="H112" s="72"/>
-      <c r="I112" s="72"/>
-      <c r="J112" s="73"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="37"/>
+    <row r="112" spans="1:19" s="4" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="41"/>
       <c r="R112" s="44"/>
       <c r="S112" s="44"/>
     </row>
-    <row r="113" spans="1:19" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="46"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="40"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="37"/>
+    <row r="113" spans="1:19" s="4" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" s="50"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
+      <c r="I113" s="52"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="52"/>
+      <c r="L113" s="53"/>
       <c r="R113" s="44"/>
       <c r="S113" s="44"/>
     </row>
-    <row r="114" spans="1:19" s="4" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="40"/>
-      <c r="G114" s="41"/>
+    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R114" s="44"/>
       <c r="S114" s="44"/>
-    </row>
-    <row r="115" spans="1:19" s="4" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="50"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="52"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="52"/>
-      <c r="J115" s="52"/>
-      <c r="K115" s="52"/>
-      <c r="L115" s="53"/>
-      <c r="R115" s="44"/>
-      <c r="S115" s="44"/>
-    </row>
-    <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R116" s="44"/>
-      <c r="S116" s="44"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -4770,97 +4885,90 @@
     <mergeCell ref="C45:L46"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A60:C61"/>
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="A61:C61"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="A62:C63"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="J67:L68"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="J65:L66"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="C67:E68"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="J68:L68"/>
     <mergeCell ref="A69:B70"/>
     <mergeCell ref="C69:E70"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="J71:L72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="A74:L74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J85"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:L88"/>
-    <mergeCell ref="A90:L90"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="H93:I94"/>
-    <mergeCell ref="J93:L94"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="A95:B96"/>
-    <mergeCell ref="C95:E96"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="J69:L70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C74:J83"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C85:L86"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="H91:I92"/>
+    <mergeCell ref="J91:L92"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C93:E94"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:E95"/>
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="J95:L95"/>
-    <mergeCell ref="J96:L96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:L97"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="A100:L100"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="C102:J112"/>
-    <mergeCell ref="O101:O105"/>
+    <mergeCell ref="Q96:Q97"/>
+    <mergeCell ref="A98:L98"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="C100:J110"/>
+    <mergeCell ref="O99:O103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
     <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:E111"/>
     <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:E112"/>
     <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:L115"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="C113:L113"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="A97:L97"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="61" firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;R&amp;8
-&amp;6&amp;F</oddFooter>
-  </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="50" max="11" man="1"/>
-  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4869,10 +4977,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>